--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="86">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +358,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syscall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,18 +424,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -754,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -804,22 +801,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -831,22 +828,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
       <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
-        <v>81</v>
-      </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -858,22 +855,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -885,22 +882,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -912,22 +909,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -939,22 +936,22 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -966,22 +963,22 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -993,22 +990,22 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1020,22 +1017,22 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1047,22 +1044,22 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1074,22 +1071,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1101,22 +1098,22 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1128,22 +1125,22 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1155,22 +1152,22 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1182,22 +1179,22 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1209,19 +1206,19 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1233,19 +1230,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1257,22 +1254,22 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1284,22 +1281,22 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1311,19 +1308,19 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1335,22 +1332,22 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1362,22 +1359,22 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1389,22 +1386,22 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1416,22 +1413,22 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1443,22 +1440,22 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1470,22 +1467,22 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1497,22 +1494,22 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1524,22 +1521,22 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1551,22 +1548,22 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1578,22 +1575,22 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1605,22 +1602,22 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1632,22 +1629,22 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1659,22 +1656,22 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
         <v>71</v>
       </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1686,22 +1683,22 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
       <c r="G35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1713,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1740,22 +1737,22 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
-        <v>72</v>
-      </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1767,22 +1764,22 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
         <v>71</v>
       </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1794,328 +1791,328 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="E39" t="s">
-        <v>72</v>
-      </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <f>4-COUNTBLANK(C40:F40)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <f>4-COUNTBLANK(C41:F41)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <f>4-COUNTBLANK(C42:F42)</f>
         <v>2</v>
       </c>
       <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
         <v>74</v>
       </c>
-      <c r="D42" t="s">
-        <v>75</v>
-      </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <f>4-COUNTBLANK(C43:F43)</f>
         <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
         <v>74</v>
       </c>
-      <c r="D43" t="s">
-        <v>75</v>
-      </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <f>4-COUNTBLANK(C44:F44)</f>
         <v>2</v>
       </c>
       <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
         <v>74</v>
       </c>
-      <c r="D44" t="s">
-        <v>75</v>
-      </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <f>4-COUNTBLANK(C45:F45)</f>
         <v>2</v>
       </c>
       <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
         <v>74</v>
       </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <f>4-COUNTBLANK(C46:F46)</f>
         <v>2</v>
       </c>
       <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
-        <v>75</v>
-      </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <f>4-COUNTBLANK(C47:F47)</f>
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" t="s">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="K47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <f>4-COUNTBLANK(C48:F48)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <f>4-COUNTBLANK(C49:F49)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <f>4-COUNTBLANK(C50:F50)</f>
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <f>4-COUNTBLANK(C51:F51)</f>
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <f>4-COUNTBLANK(C52:F52)</f>
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -2127,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -2142,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2157,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2175,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K56">
     <sortState ref="A2:K56">
-      <sortCondition descending="1" ref="H1:H56"/>
+      <sortCondition descending="1" ref="I1:I56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2198,7 +2195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="x">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,214 +794,202 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <f>4-COUNTBLANK(C2:F2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <f>4-COUNTBLANK(C3:F3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <f>4-COUNTBLANK(C4:F4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <f>4-COUNTBLANK(C5:F5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <f>4-COUNTBLANK(C6:F6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <f>4-COUNTBLANK(C7:F7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <f>4-COUNTBLANK(C8:F8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <f>4-COUNTBLANK(C9:F9)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
       <c r="K9" t="s">
@@ -1010,7 +998,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <f>4-COUNTBLANK(C10:F10)</f>
@@ -1020,16 +1008,16 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
         <v>79</v>
@@ -1037,7 +1025,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <f>4-COUNTBLANK(C11:F11)</f>
@@ -1050,13 +1038,13 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
         <v>79</v>
@@ -1064,7 +1052,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <f>4-COUNTBLANK(C12:F12)</f>
@@ -1077,13 +1065,13 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>79</v>
@@ -1091,7 +1079,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <f>4-COUNTBLANK(C13:F13)</f>
@@ -1101,16 +1089,16 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
         <v>79</v>
@@ -1118,7 +1106,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <f>4-COUNTBLANK(C14:F14)</f>
@@ -1128,16 +1116,16 @@
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -1145,7 +1133,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <f>4-COUNTBLANK(C15:F15)</f>
@@ -1161,10 +1149,10 @@
         <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>79</v>
@@ -1172,7 +1160,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <f>4-COUNTBLANK(C16:F16)</f>
@@ -1188,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -1199,11 +1187,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <f>4-COUNTBLANK(C17:F17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -1211,6 +1199,9 @@
       <c r="D17" t="s">
         <v>66</v>
       </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
       <c r="H17" t="s">
         <v>81</v>
       </c>
@@ -1218,22 +1209,25 @@
         <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f>4-COUNTBLANK(C18:F18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -1247,7 +1241,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <f>4-COUNTBLANK(C19:F19)</f>
@@ -1274,7 +1268,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>4-COUNTBLANK(C20:F20)</f>
@@ -1301,17 +1295,20 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <f>4-COUNTBLANK(C21:F21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <f>4-COUNTBLANK(C22:F22)</f>
@@ -1335,24 +1332,24 @@
         <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
         <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <f>4-COUNTBLANK(C23:F23)</f>
@@ -1368,18 +1365,18 @@
         <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
         <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <f>4-COUNTBLANK(C24:F24)</f>
@@ -1395,72 +1392,66 @@
         <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
         <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <f>4-COUNTBLANK(C25:F25)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
         <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
         <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <f>4-COUNTBLANK(C26:F26)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
         <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
         <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <f>4-COUNTBLANK(C27:F27)</f>
@@ -1476,18 +1467,18 @@
         <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
         <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <f>4-COUNTBLANK(C28:F28)</f>
@@ -1497,51 +1488,48 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
         <v>81</v>
       </c>
       <c r="I28" t="s">
         <v>81</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <f>4-COUNTBLANK(C29:F29)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
         <v>81</v>
       </c>
       <c r="I29" t="s">
         <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <f>4-COUNTBLANK(C30:F30)</f>
@@ -1551,24 +1539,24 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <f>4-COUNTBLANK(C31:F31)</f>
@@ -1578,24 +1566,24 @@
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <f>4-COUNTBLANK(C32:F32)</f>
@@ -1605,24 +1593,24 @@
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <f>4-COUNTBLANK(C33:F33)</f>
@@ -1632,24 +1620,24 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <f>4-COUNTBLANK(C34:F34)</f>
@@ -1659,24 +1647,24 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <f>4-COUNTBLANK(C35:F35)</f>
@@ -1686,24 +1674,24 @@
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <f>4-COUNTBLANK(C36:F36)</f>
@@ -1713,10 +1701,10 @@
         <v>63</v>
       </c>
       <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
         <v>70</v>
-      </c>
-      <c r="E36" t="s">
-        <v>71</v>
       </c>
       <c r="G36" t="s">
         <v>81</v>
@@ -1730,7 +1718,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <f>4-COUNTBLANK(C37:F37)</f>
@@ -1740,10 +1728,10 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
         <v>70</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
       </c>
       <c r="G37" t="s">
         <v>81</v>
@@ -1757,7 +1745,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <f>4-COUNTBLANK(C38:F38)</f>
@@ -1767,10 +1755,10 @@
         <v>63</v>
       </c>
       <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
         <v>70</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>81</v>
@@ -1784,7 +1772,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <f>4-COUNTBLANK(C39:F39)</f>
@@ -1794,10 +1782,10 @@
         <v>63</v>
       </c>
       <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
         <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>71</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
@@ -1811,191 +1799,209 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <f>4-COUNTBLANK(C40:F40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>81</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <f>4-COUNTBLANK(C41:F41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>81</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <f>4-COUNTBLANK(C42:F42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
       </c>
       <c r="H42" t="s">
         <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" t="s">
-        <v>79</v>
-      </c>
-      <c r="K42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <f>4-COUNTBLANK(C43:F43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
       </c>
       <c r="H43" t="s">
         <v>81</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <f>4-COUNTBLANK(C44:F44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
       </c>
       <c r="H44" t="s">
         <v>81</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <f>4-COUNTBLANK(C45:F45)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <f>4-COUNTBLANK(C46:F46)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <f>4-COUNTBLANK(C47:F47)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
       </c>
       <c r="G47" t="s">
         <v>81</v>
@@ -2004,12 +2010,6 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
   </sheetData>
   <autoFilter ref="A1:K56">
     <sortState ref="A2:K56">
-      <sortCondition descending="1" ref="I1:I56"/>
+      <sortCondition descending="1" ref="J1:J56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,54 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvalue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_expr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_gcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_gcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horse2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superloop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twinPrime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,12 +442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -416,15 +470,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -749,15 +836,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,8 +879,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -818,8 +909,11 @@
       <c r="K2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -845,10 +939,13 @@
       <c r="K3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <f>4-COUNTBLANK(C4:F4)</f>
@@ -872,10 +969,13 @@
       <c r="K4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <f>4-COUNTBLANK(C5:F5)</f>
@@ -891,18 +991,18 @@
         <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <f>4-COUNTBLANK(C6:F6)</f>
@@ -923,10 +1023,13 @@
       <c r="J6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <f>4-COUNTBLANK(C7:F7)</f>
@@ -947,58 +1050,73 @@
       <c r="J7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <f>4-COUNTBLANK(C8:F8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <f>4-COUNTBLANK(C9:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <f>4-COUNTBLANK(C10:F10)</f>
@@ -1011,21 +1129,24 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <f>4-COUNTBLANK(C11:F11)</f>
@@ -1038,7 +1159,7 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>79</v>
@@ -1049,10 +1170,13 @@
       <c r="K11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <f>4-COUNTBLANK(C12:F12)</f>
@@ -1065,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
         <v>79</v>
@@ -1076,10 +1200,13 @@
       <c r="K12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <f>4-COUNTBLANK(C13:F13)</f>
@@ -1089,78 +1216,81 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <f>4-COUNTBLANK(C14:F14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
         <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <f>4-COUNTBLANK(C15:F15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <f>4-COUNTBLANK(C16:F16)</f>
@@ -1176,18 +1306,21 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <f>4-COUNTBLANK(C17:F17)</f>
@@ -1197,13 +1330,13 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
         <v>81</v>
@@ -1211,10 +1344,13 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <f>4-COUNTBLANK(C18:F18)</f>
@@ -1227,7 +1363,10 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -1235,13 +1374,13 @@
       <c r="I18" t="s">
         <v>81</v>
       </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <f>4-COUNTBLANK(C19:F19)</f>
@@ -1251,10 +1390,13 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -1262,13 +1404,13 @@
       <c r="I19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <f>4-COUNTBLANK(C20:F20)</f>
@@ -1278,10 +1420,13 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
@@ -1289,13 +1434,13 @@
       <c r="I20" t="s">
         <v>81</v>
       </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <f>4-COUNTBLANK(C21:F21)</f>
@@ -1308,7 +1453,10 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
@@ -1316,13 +1464,13 @@
       <c r="I21" t="s">
         <v>81</v>
       </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <f>4-COUNTBLANK(C22:F22)</f>
@@ -1335,7 +1483,10 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
@@ -1343,13 +1494,13 @@
       <c r="I22" t="s">
         <v>81</v>
       </c>
-      <c r="K22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <f>4-COUNTBLANK(C23:F23)</f>
@@ -1359,10 +1510,13 @@
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>81</v>
@@ -1370,13 +1524,13 @@
       <c r="I23" t="s">
         <v>81</v>
       </c>
-      <c r="K23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <f>4-COUNTBLANK(C24:F24)</f>
@@ -1386,10 +1540,13 @@
         <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
@@ -1397,23 +1554,29 @@
       <c r="I24" t="s">
         <v>81</v>
       </c>
-      <c r="K24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <f>4-COUNTBLANK(C25:F25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>81</v>
@@ -1421,23 +1584,29 @@
       <c r="I25" t="s">
         <v>81</v>
       </c>
-      <c r="K25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <f>4-COUNTBLANK(C26:F26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>81</v>
@@ -1445,145 +1614,127 @@
       <c r="I26" t="s">
         <v>81</v>
       </c>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <f>4-COUNTBLANK(C27:F27)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
+      <c r="G27" t="s">
+        <v>81</v>
       </c>
       <c r="H27" t="s">
         <v>81</v>
       </c>
-      <c r="I27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <f>4-COUNTBLANK(C28:F28)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <f>4-COUNTBLANK(C29:F29)</f>
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
         <v>81</v>
       </c>
-      <c r="I29" t="s">
-        <v>81</v>
-      </c>
       <c r="K29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <f>4-COUNTBLANK(C30:F30)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" t="s">
         <v>81</v>
       </c>
       <c r="K30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <f>4-COUNTBLANK(C31:F31)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" t="s">
         <v>81</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <f>4-COUNTBLANK(C32:F32)</f>
@@ -1599,18 +1750,21 @@
         <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
         <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <f>4-COUNTBLANK(C33:F33)</f>
@@ -1634,10 +1788,13 @@
       <c r="K33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <f>4-COUNTBLANK(C34:F34)</f>
@@ -1647,67 +1804,64 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
         <v>81</v>
       </c>
-      <c r="K34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <f>4-COUNTBLANK(C35:F35)</f>
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s">
         <v>81</v>
       </c>
+      <c r="J35" t="s">
+        <v>81</v>
+      </c>
       <c r="K35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <f>4-COUNTBLANK(C36:F36)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
         <v>81</v>
@@ -1715,10 +1869,16 @@
       <c r="I36" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <f>4-COUNTBLANK(C37:F37)</f>
@@ -1728,24 +1888,24 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B38">
         <f>4-COUNTBLANK(C38:F38)</f>
@@ -1755,24 +1915,24 @@
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <f>4-COUNTBLANK(C39:F39)</f>
@@ -1785,10 +1945,7 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
@@ -1796,10 +1953,13 @@
       <c r="I39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <f>4-COUNTBLANK(C40:F40)</f>
@@ -1812,10 +1972,7 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
         <v>81</v>
@@ -1823,10 +1980,13 @@
       <c r="I40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <f>4-COUNTBLANK(C41:F41)</f>
@@ -1836,13 +1996,10 @@
         <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>81</v>
@@ -1850,10 +2007,13 @@
       <c r="I41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <f>4-COUNTBLANK(C42:F42)</f>
@@ -1863,13 +2023,10 @@
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
         <v>81</v>
@@ -1877,10 +2034,13 @@
       <c r="I42" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <f>4-COUNTBLANK(C43:F43)</f>
@@ -1890,13 +2050,10 @@
         <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
         <v>81</v>
@@ -1904,10 +2061,13 @@
       <c r="I43" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <f>4-COUNTBLANK(C44:F44)</f>
@@ -1917,13 +2077,10 @@
         <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
         <v>81</v>
@@ -1931,10 +2088,13 @@
       <c r="I44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <f>4-COUNTBLANK(C45:F45)</f>
@@ -1944,13 +2104,10 @@
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
         <v>81</v>
@@ -1958,26 +2115,23 @@
       <c r="I45" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <f>4-COUNTBLANK(C46:F46)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
         <v>81</v>
@@ -1985,10 +2139,13 @@
       <c r="I46" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <f>4-COUNTBLANK(C47:F47)</f>
@@ -1998,13 +2155,10 @@
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H47" t="s">
         <v>81</v>
@@ -2012,158 +2166,206 @@
       <c r="I47" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <f>4-COUNTBLANK(C48:F48)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
-      <c r="G48" t="s">
-        <v>81</v>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <f>4-COUNTBLANK(C49:F49)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
       </c>
-      <c r="G49" t="s">
-        <v>81</v>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
       </c>
       <c r="H49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s">
         <v>81</v>
       </c>
       <c r="K49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <f>4-COUNTBLANK(C50:F50)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
       </c>
       <c r="K50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <f>4-COUNTBLANK(C51:F51)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
       </c>
       <c r="H51" t="s">
         <v>81</v>
       </c>
-      <c r="K51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <f>4-COUNTBLANK(C52:F52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
       </c>
       <c r="H52" t="s">
         <v>81</v>
       </c>
-      <c r="K52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <f>4-COUNTBLANK(C53:F53)</f>
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <f>4-COUNTBLANK(C54:F54)</f>
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <f>4-COUNTBLANK(C55:F55)</f>
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2175,10 +2377,121 @@
         <v>81</v>
       </c>
     </row>
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:K56">
-    <sortState ref="A2:K56">
-      <sortCondition descending="1" ref="J1:J56"/>
+  <autoFilter ref="A1:M56">
+    <sortState ref="A2:L56">
+      <sortCondition sortBy="cellColor" ref="L1:L56" dxfId="1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2194,13 +2507,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
+  <conditionalFormatting sqref="G1:L1048576">
+    <cfRule type="beginsWith" dxfId="5" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="4" priority="1" operator="beginsWith" text="R">
       <formula>LEFT(C1,LEN("R"))="R"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -481,23 +481,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -514,15 +498,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -836,11 +814,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -885,169 +864,160 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>4-COUNTBLANK(C2:F2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>4-COUNTBLANK(C3:F3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>4-COUNTBLANK(C4:F4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <f>4-COUNTBLANK(C5:F5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <f>4-COUNTBLANK(C6:F6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
         <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <f>4-COUNTBLANK(C7:F7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
         <v>81</v>
       </c>
       <c r="L7" t="s">
@@ -1056,7 +1026,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <f>4-COUNTBLANK(C8:F8)</f>
@@ -1066,19 +1036,19 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
         <v>87</v>
@@ -1086,7 +1056,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <f>4-COUNTBLANK(C9:F9)</f>
@@ -1096,19 +1066,19 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
         <v>87</v>
@@ -1116,7 +1086,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <f>4-COUNTBLANK(C10:F10)</f>
@@ -1126,19 +1096,19 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s">
         <v>87</v>
@@ -1146,7 +1116,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <f>4-COUNTBLANK(C11:F11)</f>
@@ -1156,27 +1126,27 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <f>4-COUNTBLANK(C12:F12)</f>
@@ -1186,27 +1156,27 @@
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <f>4-COUNTBLANK(C13:F13)</f>
@@ -1216,31 +1186,28 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <f>4-COUNTBLANK(C14:F14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -1248,49 +1215,52 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
       <c r="L14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <f>4-COUNTBLANK(C15:F15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
       </c>
       <c r="I15" t="s">
         <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>4-COUNTBLANK(C16:F16)</f>
@@ -1300,27 +1270,27 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <f>4-COUNTBLANK(C17:F17)</f>
@@ -1330,27 +1300,27 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
         <v>81</v>
       </c>
-      <c r="K17" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <f>4-COUNTBLANK(C18:F18)</f>
@@ -1363,10 +1333,7 @@
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -1374,13 +1341,16 @@
       <c r="I18" t="s">
         <v>81</v>
       </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
       <c r="L18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <f>4-COUNTBLANK(C19:F19)</f>
@@ -1390,13 +1360,10 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -1404,13 +1371,13 @@
       <c r="I19" t="s">
         <v>81</v>
       </c>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f>4-COUNTBLANK(C20:F20)</f>
@@ -1420,13 +1387,10 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
@@ -1434,13 +1398,13 @@
       <c r="I20" t="s">
         <v>81</v>
       </c>
-      <c r="L20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <f>4-COUNTBLANK(C21:F21)</f>
@@ -1453,10 +1417,7 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
@@ -1464,124 +1425,82 @@
       <c r="I21" t="s">
         <v>81</v>
       </c>
-      <c r="L21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <f>4-COUNTBLANK(C22:F22)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <f>4-COUNTBLANK(C23:F23)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
       <c r="G23" t="s">
         <v>81</v>
       </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>81</v>
       </c>
       <c r="L23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <f>4-COUNTBLANK(C24:F24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
       <c r="G24" t="s">
         <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" t="s">
-        <v>89</v>
+      <c r="K24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <f>4-COUNTBLANK(C25:F25)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" t="s">
         <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s">
         <v>81</v>
       </c>
       <c r="L25" t="s">
@@ -1590,28 +1509,28 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <f>4-COUNTBLANK(C26:F26)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
         <v>81</v>
       </c>
       <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
         <v>81</v>
       </c>
       <c r="L26" t="s">
@@ -1620,89 +1539,110 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <f>4-COUNTBLANK(C27:F27)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
       </c>
       <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
         <v>81</v>
       </c>
       <c r="L27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <f>4-COUNTBLANK(C28:F28)</f>
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" t="s">
         <v>79</v>
       </c>
       <c r="K28" t="s">
         <v>81</v>
-      </c>
-      <c r="L28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <f>4-COUNTBLANK(C29:F29)</f>
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
         <v>81</v>
       </c>
+      <c r="I29" t="s">
+        <v>81</v>
+      </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <f>4-COUNTBLANK(C30:F30)</f>
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
         <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>81</v>
@@ -1713,88 +1653,79 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B31">
         <f>4-COUNTBLANK(C31:F31)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
         <v>81</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <f>4-COUNTBLANK(C32:F32)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
         <v>81</v>
       </c>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <f>4-COUNTBLANK(C33:F33)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
         <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <f>4-COUNTBLANK(C34:F34)</f>
@@ -1804,34 +1735,40 @@
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <f>4-COUNTBLANK(C35:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
       <c r="H35" t="s">
         <v>81</v>
@@ -1839,46 +1776,40 @@
       <c r="I35" t="s">
         <v>81</v>
       </c>
-      <c r="J35" t="s">
-        <v>81</v>
-      </c>
       <c r="K35" t="s">
         <v>81</v>
       </c>
-      <c r="L35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <f>4-COUNTBLANK(C36:F36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <f>4-COUNTBLANK(C37:F37)</f>
@@ -1888,16 +1819,16 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s">
         <v>79</v>
@@ -1905,38 +1836,38 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B38">
         <f>4-COUNTBLANK(C38:F38)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
         <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <f>4-COUNTBLANK(C39:F39)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -1944,9 +1875,6 @@
       <c r="D39" t="s">
         <v>66</v>
       </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
       <c r="H39" t="s">
         <v>81</v>
       </c>
@@ -1954,39 +1882,24 @@
         <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <f>4-COUNTBLANK(C40:F40)</f>
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K40" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <f>4-COUNTBLANK(C41:F41)</f>
@@ -2010,10 +1923,13 @@
       <c r="K41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <f>4-COUNTBLANK(C42:F42)</f>
@@ -2040,34 +1956,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <f>4-COUNTBLANK(C43:F43)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
         <v>81</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <f>4-COUNTBLANK(C44:F44)</f>
@@ -2083,18 +1999,21 @@
         <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
         <v>81</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <f>4-COUNTBLANK(C45:F45)</f>
@@ -2110,69 +2029,78 @@
         <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
         <v>81</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <f>4-COUNTBLANK(C46:F46)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
       </c>
       <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
         <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
         <v>81</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="L46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <f>4-COUNTBLANK(C47:F47)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" t="s">
-        <v>79</v>
+        <v>79</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <f>4-COUNTBLANK(C48:F48)</f>
@@ -2197,12 +2125,12 @@
         <v>81</v>
       </c>
       <c r="L48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B49">
         <f>4-COUNTBLANK(C49:F49)</f>
@@ -2227,7 +2155,7 @@
         <v>81</v>
       </c>
       <c r="L49" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2262,7 +2190,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <f>4-COUNTBLANK(C51:F51)</f>
@@ -2272,24 +2200,27 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B52">
         <f>4-COUNTBLANK(C52:F52)</f>
@@ -2299,82 +2230,130 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <f>4-COUNTBLANK(C53:F53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
       </c>
       <c r="H53" t="s">
         <v>81</v>
       </c>
-      <c r="K53" t="s">
-        <v>81</v>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <f>4-COUNTBLANK(C54:F54)</f>
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B55">
         <f>4-COUNTBLANK(C55:F55)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <f>4-COUNTBLANK(C56:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2490,8 +2469,13 @@
     <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:M56">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:L56">
-      <sortCondition sortBy="cellColor" ref="L1:L56" dxfId="1"/>
+      <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2508,12 +2492,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:L1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="2" operator="beginsWith" text="x">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="beginsWith" dxfId="4" priority="1" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="R">
       <formula>LEFT(C1,LEN("R"))="R"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="150">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +420,162 @@
   <si>
     <t>twinPrime</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>beqz</t>
+  </si>
+  <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bgez</t>
+  </si>
+  <si>
+    <t>bgt</t>
+  </si>
+  <si>
+    <t>bgtz</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>bnez</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>mfhi</t>
+  </si>
+  <si>
+    <t>mflo</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>sge</t>
+  </si>
+  <si>
+    <t>sgt</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sle</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>sne</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>syscall</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>blez</t>
+  </si>
+  <si>
+    <t>bltz</t>
+  </si>
+  <si>
+    <t>divu</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>mulu</t>
+  </si>
+  <si>
+    <t>negu</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>remu</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xoru</t>
   </si>
 </sst>
 </file>
@@ -481,7 +638,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -493,14 +650,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,12 +963,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -867,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>4-COUNTBLANK(C2:F2)</f>
+        <f t="shared" ref="B2:B33" si="0">4-COUNTBLANK(C2:F2)</f>
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -892,12 +1336,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <f>4-COUNTBLANK(C3:F3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -924,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>4-COUNTBLANK(C4:F4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -949,12 +1393,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5">
-        <f>4-COUNTBLANK(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -969,7 +1413,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <f>4-COUNTBLANK(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -999,7 +1443,7 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <f>4-COUNTBLANK(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -1029,7 +1473,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <f>4-COUNTBLANK(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -1059,7 +1503,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <f>4-COUNTBLANK(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -1089,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <f>4-COUNTBLANK(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -1119,7 +1563,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <f>4-COUNTBLANK(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -1149,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <f>4-COUNTBLANK(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -1174,12 +1618,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13">
-        <f>4-COUNTBLANK(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" t="s">
@@ -1206,7 +1650,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <f>4-COUNTBLANK(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -1231,12 +1675,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15">
-        <f>4-COUNTBLANK(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" t="s">
@@ -1263,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <f>4-COUNTBLANK(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -1293,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <f>4-COUNTBLANK(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -1323,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <f>4-COUNTBLANK(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -1348,12 +1792,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <f>4-COUNTBLANK(C19:F19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C19" t="s">
@@ -1375,12 +1819,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <f>4-COUNTBLANK(C20:F20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C20" t="s">
@@ -1402,12 +1846,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <f>4-COUNTBLANK(C21:F21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -1429,12 +1873,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22">
-        <f>4-COUNTBLANK(C22:F22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -1449,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="B23">
-        <f>4-COUNTBLANK(C23:F23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1465,12 +1909,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24">
-        <f>4-COUNTBLANK(C24:F24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1491,7 +1935,7 @@
         <v>49</v>
       </c>
       <c r="B25">
-        <f>4-COUNTBLANK(C25:F25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1512,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="B26">
-        <f>4-COUNTBLANK(C26:F26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -1542,7 +1986,7 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <f>4-COUNTBLANK(C27:F27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C27" t="s">
@@ -1567,12 +2011,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28">
-        <f>4-COUNTBLANK(C28:F28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -1599,7 +2043,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>4-COUNTBLANK(C29:F29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -1626,7 +2070,7 @@
         <v>55</v>
       </c>
       <c r="B30">
-        <f>4-COUNTBLANK(C30:F30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C30" t="s">
@@ -1656,7 +2100,7 @@
         <v>60</v>
       </c>
       <c r="B31">
-        <f>4-COUNTBLANK(C31:F31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -1680,7 +2124,7 @@
         <v>61</v>
       </c>
       <c r="B32">
-        <f>4-COUNTBLANK(C32:F32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C32" t="s">
@@ -1704,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <f>4-COUNTBLANK(C33:F33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C33" t="s">
@@ -1728,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <f>4-COUNTBLANK(C34:F34)</f>
+        <f t="shared" ref="B34:B65" si="1">4-COUNTBLANK(C34:F34)</f>
         <v>3</v>
       </c>
       <c r="C34" t="s">
@@ -1753,12 +2197,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35">
-        <f>4-COUNTBLANK(C35:F35)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C35" t="s">
@@ -1780,12 +2224,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36">
-        <f>4-COUNTBLANK(C36:F36)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C36" t="s">
@@ -1807,12 +2251,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37">
-        <f>4-COUNTBLANK(C37:F37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C37" t="s">
@@ -1839,7 +2283,7 @@
         <v>24</v>
       </c>
       <c r="B38">
-        <f>4-COUNTBLANK(C38:F38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C38" t="s">
@@ -1861,12 +2305,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39">
-        <f>4-COUNTBLANK(C39:F39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -1885,12 +2329,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40">
-        <f>4-COUNTBLANK(C40:F40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" t="s">
@@ -1902,7 +2346,7 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <f>4-COUNTBLANK(C41:F41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C41" t="s">
@@ -1927,12 +2371,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42">
-        <f>4-COUNTBLANK(C42:F42)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C42" t="s">
@@ -1959,7 +2403,7 @@
         <v>56</v>
       </c>
       <c r="B43">
-        <f>4-COUNTBLANK(C43:F43)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C43" t="s">
@@ -1986,7 +2430,7 @@
         <v>30</v>
       </c>
       <c r="B44">
-        <f>4-COUNTBLANK(C44:F44)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C44" t="s">
@@ -2016,7 +2460,7 @@
         <v>29</v>
       </c>
       <c r="B45">
-        <f>4-COUNTBLANK(C45:F45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C45" t="s">
@@ -2046,7 +2490,7 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <f>4-COUNTBLANK(C46:F46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C46" t="s">
@@ -2076,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="B47">
-        <f>4-COUNTBLANK(C47:F47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C47" t="s">
@@ -2103,7 +2547,7 @@
         <v>32</v>
       </c>
       <c r="B48">
-        <f>4-COUNTBLANK(C48:F48)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C48" t="s">
@@ -2133,7 +2577,7 @@
         <v>33</v>
       </c>
       <c r="B49">
-        <f>4-COUNTBLANK(C49:F49)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C49" t="s">
@@ -2163,7 +2607,7 @@
         <v>34</v>
       </c>
       <c r="B50">
-        <f>4-COUNTBLANK(C50:F50)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C50" t="s">
@@ -2193,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <f>4-COUNTBLANK(C51:F51)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C51" t="s">
@@ -2223,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <f>4-COUNTBLANK(C52:F52)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C52" t="s">
@@ -2253,7 +2697,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <f>4-COUNTBLANK(C53:F53)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C53" t="s">
@@ -2280,7 +2724,7 @@
         <v>84</v>
       </c>
       <c r="B54">
-        <f>4-COUNTBLANK(C54:F54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G54" t="s">
@@ -2302,12 +2746,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>22</v>
       </c>
       <c r="B55">
-        <f>4-COUNTBLANK(C55:F55)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C55" t="s">
@@ -2329,12 +2773,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56">
-        <f>4-COUNTBLANK(C56:F56)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C56" t="s">
@@ -2469,11 +2913,6 @@
     <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:M56">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A2:L56">
       <sortCondition ref="A1:A56"/>
     </sortState>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxy98\Documents\Visual Studio 2015\Projects\mips_sim\structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxy98\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$56</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="162">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +420,210 @@
   </si>
   <si>
     <t>twinPrime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>beqz</t>
+  </si>
+  <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bgez</t>
+  </si>
+  <si>
+    <t>bgt</t>
+  </si>
+  <si>
+    <t>bgtz</t>
+  </si>
+  <si>
+    <t>ble</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>bnez</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>mfhi</t>
+  </si>
+  <si>
+    <t>mflo</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>sge</t>
+  </si>
+  <si>
+    <t>sgt</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sle</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>sne</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>syscall</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>blez</t>
+  </si>
+  <si>
+    <t>bltz</t>
+  </si>
+  <si>
+    <t>divu</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>mulu</t>
+  </si>
+  <si>
+    <t>negu</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>remu</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xoru</t>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据到寄存器（解锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0什么都不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据方法新数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +647,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,18 +698,184 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -501,6 +895,204 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,17 +1406,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="6" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,112 +1895,142 @@
       <c r="L1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <f>4-COUNTBLANK(C2:F2)</f>
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <f>4-COUNTBLANK(C3:F3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <f>4-COUNTBLANK(C4:F4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
       <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <f>4-COUNTBLANK(C5:F5)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
       </c>
       <c r="B6">
         <f>4-COUNTBLANK(C6:F6)</f>
@@ -976,27 +2040,30 @@
         <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>4-COUNTBLANK(C7:F7)</f>
@@ -1006,27 +2073,27 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <f>4-COUNTBLANK(C8:F8)</f>
@@ -1036,27 +2103,30 @@
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
       </c>
       <c r="L8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <f>4-COUNTBLANK(C9:F9)</f>
@@ -1066,27 +2136,30 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
       </c>
       <c r="L9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <f>4-COUNTBLANK(C10:F10)</f>
@@ -1096,27 +2169,27 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10" t="s">
         <v>81</v>
       </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <f>4-COUNTBLANK(C11:F11)</f>
@@ -1126,13 +2199,10 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
@@ -1140,13 +2210,16 @@
       <c r="I11" t="s">
         <v>81</v>
       </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <f>4-COUNTBLANK(C12:F12)</f>
@@ -1159,10 +2232,7 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
@@ -1170,29 +2240,26 @@
       <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <f>4-COUNTBLANK(C13:F13)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
@@ -1200,40 +2267,49 @@
       <c r="I13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <f>4-COUNTBLANK(C14:F14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
       </c>
       <c r="I14" t="s">
         <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
       </c>
       <c r="L14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <f>4-COUNTBLANK(C15:F15)</f>
@@ -1243,24 +2319,30 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <f>4-COUNTBLANK(C16:F16)</f>
@@ -1273,10 +2355,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
         <v>81</v>
@@ -1284,13 +2363,16 @@
       <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <f>4-COUNTBLANK(C17:F17)</f>
@@ -1300,27 +2382,27 @@
         <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f>4-COUNTBLANK(C18:F18)</f>
@@ -1344,25 +2426,22 @@
       <c r="K18" t="s">
         <v>79</v>
       </c>
-      <c r="L18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <f>4-COUNTBLANK(C19:F19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" t="s">
         <v>66</v>
       </c>
       <c r="H19" t="s">
@@ -1374,22 +2453,25 @@
       <c r="K19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <f>4-COUNTBLANK(C20:F20)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
         <v>66</v>
       </c>
       <c r="H20" t="s">
@@ -1401,10 +2483,13 @@
       <c r="K20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <f>4-COUNTBLANK(C21:F21)</f>
@@ -1414,10 +2499,10 @@
         <v>63</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
@@ -1428,107 +2513,164 @@
       <c r="K21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <f>4-COUNTBLANK(C22:F22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <f>4-COUNTBLANK(C23:F23)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
         <v>81</v>
       </c>
       <c r="K23" t="s">
         <v>81</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <f>4-COUNTBLANK(C24:F24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="G24" t="s">
-        <v>81</v>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
       </c>
       <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
         <v>81</v>
       </c>
       <c r="K24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <f>4-COUNTBLANK(C25:F25)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="G25" t="s">
-        <v>81</v>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
       </c>
       <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
         <v>81</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <f>4-COUNTBLANK(C26:F26)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
         <v>81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
@@ -1536,29 +2678,32 @@
       <c r="L26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <f>4-COUNTBLANK(C27:F27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
         <v>81</v>
-      </c>
-      <c r="J27" t="s">
-        <v>79</v>
       </c>
       <c r="K27" t="s">
         <v>81</v>
@@ -1566,53 +2711,65 @@
       <c r="L27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <f>4-COUNTBLANK(C28:F28)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>81</v>
       </c>
-      <c r="J28" t="s">
-        <v>79</v>
-      </c>
       <c r="K28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <f>4-COUNTBLANK(C29:F29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
         <v>79</v>
@@ -1620,286 +2777,325 @@
       <c r="L29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <f>4-COUNTBLANK(C30:F30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
         <v>79</v>
       </c>
-      <c r="K30" t="s">
-        <v>81</v>
-      </c>
       <c r="L30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <f>4-COUNTBLANK(C31:F31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
       </c>
       <c r="H31" t="s">
         <v>81</v>
       </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
       <c r="K31" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <f>4-COUNTBLANK(C32:F32)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
       </c>
       <c r="H32" t="s">
         <v>81</v>
       </c>
+      <c r="I32" t="s">
+        <v>81</v>
+      </c>
       <c r="K32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <f>4-COUNTBLANK(C33:F33)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" t="s">
-        <v>75</v>
+      <c r="G33" t="s">
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
         <v>81</v>
       </c>
-      <c r="L33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <f>4-COUNTBLANK(C34:F34)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <f>4-COUNTBLANK(C35:F35)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
         <v>81</v>
       </c>
-      <c r="I35" t="s">
-        <v>81</v>
-      </c>
       <c r="K35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <f>4-COUNTBLANK(C36:F36)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
         <v>79</v>
       </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
       <c r="K36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <f>4-COUNTBLANK(C37:F37)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
         <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <f>4-COUNTBLANK(C38:F38)</f>
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
         <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" t="s">
         <v>79</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
       </c>
       <c r="L38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <f>4-COUNTBLANK(C39:F39)</f>
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <f>4-COUNTBLANK(C40:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <f>4-COUNTBLANK(C41:F41)</f>
@@ -1909,10 +3105,13 @@
         <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>81</v>
@@ -1920,16 +3119,16 @@
       <c r="I41" t="s">
         <v>81</v>
       </c>
-      <c r="K41" t="s">
-        <v>79</v>
-      </c>
       <c r="L41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <f>4-COUNTBLANK(C42:F42)</f>
@@ -1939,10 +3138,13 @@
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
       </c>
       <c r="H42" t="s">
         <v>81</v>
@@ -1950,40 +3152,49 @@
       <c r="I42" t="s">
         <v>81</v>
       </c>
-      <c r="K42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <f>4-COUNTBLANK(C43:F43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
       </c>
       <c r="H43" t="s">
         <v>81</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J43" t="s">
         <v>81</v>
       </c>
       <c r="L43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <f>4-COUNTBLANK(C44:F44)</f>
@@ -1993,27 +3204,30 @@
         <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s">
         <v>81</v>
       </c>
-      <c r="K44" t="s">
-        <v>81</v>
-      </c>
       <c r="L44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <f>4-COUNTBLANK(C45:F45)</f>
@@ -2023,27 +3237,30 @@
         <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s">
         <v>81</v>
       </c>
-      <c r="K45" t="s">
-        <v>81</v>
-      </c>
       <c r="L45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <f>4-COUNTBLANK(C46:F46)</f>
@@ -2053,54 +3270,63 @@
         <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
         <v>81</v>
       </c>
-      <c r="K46" t="s">
-        <v>81</v>
-      </c>
       <c r="L46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="M46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <f>4-COUNTBLANK(C47:F47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
       </c>
       <c r="H47" t="s">
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" t="s">
         <v>81</v>
       </c>
       <c r="L47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <f>4-COUNTBLANK(C48:F48)</f>
@@ -2110,27 +3336,27 @@
         <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
         <v>81</v>
       </c>
-      <c r="K48" t="s">
-        <v>81</v>
-      </c>
-      <c r="L48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <f>4-COUNTBLANK(C49:F49)</f>
@@ -2140,27 +3366,30 @@
         <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" t="s">
         <v>81</v>
       </c>
       <c r="L49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <f>4-COUNTBLANK(C50:F50)</f>
@@ -2170,27 +3399,27 @@
         <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
         <v>81</v>
       </c>
-      <c r="K50" t="s">
-        <v>81</v>
-      </c>
-      <c r="L50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B51">
         <f>4-COUNTBLANK(C51:F51)</f>
@@ -2200,27 +3429,30 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="M51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <f>4-COUNTBLANK(C52:F52)</f>
@@ -2230,140 +3462,110 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-      <c r="K52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L52" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B53">
         <f>4-COUNTBLANK(C53:F53)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-      <c r="J53" t="s">
         <v>81</v>
       </c>
       <c r="L53" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <f>4-COUNTBLANK(C54:F54)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s">
-        <v>81</v>
-      </c>
-      <c r="L54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <f>4-COUNTBLANK(C55:F55)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <f>4-COUNTBLANK(C56:F56)</f>
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2469,13 +3671,8 @@
     <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:M56">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A2:L56">
-      <sortCondition ref="A1:A56"/>
+    <sortState ref="A2:M56">
+      <sortCondition sortBy="cellColor" ref="K1:K56" dxfId="1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,13 +3688,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:L1048576">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
+  <conditionalFormatting sqref="G1:K1048576 M1">
+    <cfRule type="beginsWith" dxfId="47" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="46" priority="1" operator="beginsWith" text="R">
       <formula>LEFT(C1,LEN("R"))="R"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxy98\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxy98\Documents\Visual Studio 2015\Projects\mips_sim\structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -715,167 +715,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -895,204 +735,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1849,16 +1491,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1899,12 +1541,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2">
-        <f>4-COUNTBLANK(C2:F2)</f>
+        <f t="shared" ref="B2:B33" si="0">4-COUNTBLANK(C2:F2)</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -1928,16 +1570,13 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3">
-        <f>4-COUNTBLANK(C3:F3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1962,15 +1601,15 @@
         <v>87</v>
       </c>
       <c r="M3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4">
-        <f>4-COUNTBLANK(C4:F4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1992,15 +1631,15 @@
         <v>81</v>
       </c>
       <c r="M4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5">
-        <f>4-COUNTBLANK(C5:F5)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -2025,15 +1664,15 @@
         <v>87</v>
       </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <f>4-COUNTBLANK(C6:F6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -2058,15 +1697,15 @@
         <v>87</v>
       </c>
       <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <f>4-COUNTBLANK(C7:F7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -2088,15 +1727,15 @@
         <v>79</v>
       </c>
       <c r="M7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <f>4-COUNTBLANK(C8:F8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -2121,15 +1760,15 @@
         <v>87</v>
       </c>
       <c r="M8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <f>4-COUNTBLANK(C9:F9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -2154,15 +1793,15 @@
         <v>87</v>
       </c>
       <c r="M9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <f>4-COUNTBLANK(C10:F10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" t="s">
@@ -2184,15 +1823,15 @@
         <v>79</v>
       </c>
       <c r="M10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <f>4-COUNTBLANK(C11:F11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -2214,15 +1853,15 @@
         <v>79</v>
       </c>
       <c r="M11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <f>4-COUNTBLANK(C12:F12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" t="s">
@@ -2244,15 +1883,15 @@
         <v>79</v>
       </c>
       <c r="M12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13">
-        <f>4-COUNTBLANK(C13:F13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C13" t="s">
@@ -2274,15 +1913,15 @@
         <v>87</v>
       </c>
       <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14">
-        <f>4-COUNTBLANK(C14:F14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -2307,12 +1946,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <f>4-COUNTBLANK(C15:F15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" t="s">
@@ -2340,12 +1979,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <f>4-COUNTBLANK(C16:F16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -2375,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>4-COUNTBLANK(C17:F17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -2405,7 +2044,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <f>4-COUNTBLANK(C18:F18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C18" t="s">
@@ -2435,7 +2074,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <f>4-COUNTBLANK(C19:F19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C19" t="s">
@@ -2465,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <f>4-COUNTBLANK(C20:F20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -2492,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <f>4-COUNTBLANK(C21:F21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -2525,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <f>4-COUNTBLANK(C22:F22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C22" t="s">
@@ -2555,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <f>4-COUNTBLANK(C23:F23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -2588,7 +2227,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <f>4-COUNTBLANK(C24:F24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C24" t="s">
@@ -2621,7 +2260,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <f>4-COUNTBLANK(C25:F25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C25" t="s">
@@ -2654,7 +2293,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <f>4-COUNTBLANK(C26:F26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C26" t="s">
@@ -2687,7 +2326,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <f>4-COUNTBLANK(C27:F27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C27" t="s">
@@ -2720,7 +2359,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <f>4-COUNTBLANK(C28:F28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -2753,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <f>4-COUNTBLANK(C29:F29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -2786,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <f>4-COUNTBLANK(C30:F30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C30" t="s">
@@ -2819,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="B31">
-        <f>4-COUNTBLANK(C31:F31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C31" t="s">
@@ -2849,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="B32">
-        <f>4-COUNTBLANK(C32:F32)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C32" t="s">
@@ -2879,7 +2518,7 @@
         <v>51</v>
       </c>
       <c r="B33">
-        <f>4-COUNTBLANK(C33:F33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -2903,7 +2542,7 @@
         <v>60</v>
       </c>
       <c r="B34">
-        <f>4-COUNTBLANK(C34:F34)</f>
+        <f t="shared" ref="B34:B65" si="1">4-COUNTBLANK(C34:F34)</f>
         <v>2</v>
       </c>
       <c r="C34" t="s">
@@ -2930,7 +2569,7 @@
         <v>61</v>
       </c>
       <c r="B35">
-        <f>4-COUNTBLANK(C35:F35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C35" t="s">
@@ -2957,7 +2596,7 @@
         <v>59</v>
       </c>
       <c r="B36">
-        <f>4-COUNTBLANK(C36:F36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C36" t="s">
@@ -2984,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="B37">
-        <f>4-COUNTBLANK(C37:F37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -3008,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="B38">
-        <f>4-COUNTBLANK(C38:F38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C38" t="s">
@@ -3038,7 +2677,7 @@
         <v>57</v>
       </c>
       <c r="B39">
-        <f>4-COUNTBLANK(C39:F39)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -3068,7 +2707,7 @@
         <v>58</v>
       </c>
       <c r="B40">
-        <f>4-COUNTBLANK(C40:F40)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -3098,7 +2737,7 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <f>4-COUNTBLANK(C41:F41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C41" t="s">
@@ -3131,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <f>4-COUNTBLANK(C42:F42)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C42" t="s">
@@ -3164,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <f>4-COUNTBLANK(C43:F43)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C43" t="s">
@@ -3197,7 +2836,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <f>4-COUNTBLANK(C44:F44)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C44" t="s">
@@ -3230,7 +2869,7 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <f>4-COUNTBLANK(C45:F45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C45" t="s">
@@ -3263,7 +2902,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <f>4-COUNTBLANK(C46:F46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C46" t="s">
@@ -3296,7 +2935,7 @@
         <v>39</v>
       </c>
       <c r="B47">
-        <f>4-COUNTBLANK(C47:F47)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C47" t="s">
@@ -3329,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <f>4-COUNTBLANK(C48:F48)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C48" t="s">
@@ -3359,7 +2998,7 @@
         <v>41</v>
       </c>
       <c r="B49">
-        <f>4-COUNTBLANK(C49:F49)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C49" t="s">
@@ -3392,7 +3031,7 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <f>4-COUNTBLANK(C50:F50)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C50" t="s">
@@ -3422,7 +3061,7 @@
         <v>37</v>
       </c>
       <c r="B51">
-        <f>4-COUNTBLANK(C51:F51)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C51" t="s">
@@ -3455,7 +3094,7 @@
         <v>43</v>
       </c>
       <c r="B52">
-        <f>4-COUNTBLANK(C52:F52)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C52" t="s">
@@ -3488,7 +3127,7 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <f>4-COUNTBLANK(C53:F53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C53" t="s">
@@ -3512,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="B54">
-        <f>4-COUNTBLANK(C54:F54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C54" t="s">
@@ -3530,7 +3169,7 @@
         <v>48</v>
       </c>
       <c r="B55">
-        <f>4-COUNTBLANK(C55:F55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -3548,7 +3187,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <f>4-COUNTBLANK(C56:F56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56" t="s">
@@ -3672,7 +3311,7 @@
   </sheetData>
   <autoFilter ref="A1:M56">
     <sortState ref="A2:M56">
-      <sortCondition sortBy="cellColor" ref="K1:K56" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="K1:K56" dxfId="2"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3689,12 +3328,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1048576 M1">
-    <cfRule type="beginsWith" dxfId="47" priority="2" operator="beginsWith" text="x">
+    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="beginsWith" dxfId="46" priority="1" operator="beginsWith" text="R">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="R">
       <formula>LEFT(C1,LEN("R"))="R"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="106">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,207 +423,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命令</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>addu</t>
-  </si>
-  <si>
-    <t>beq</t>
-  </si>
-  <si>
-    <t>beqz</t>
-  </si>
-  <si>
-    <t>bge</t>
-  </si>
-  <si>
-    <t>bgez</t>
-  </si>
-  <si>
-    <t>bgt</t>
-  </si>
-  <si>
-    <t>bgtz</t>
-  </si>
-  <si>
-    <t>ble</t>
-  </si>
-  <si>
-    <t>blt</t>
-  </si>
-  <si>
-    <t>bne</t>
-  </si>
-  <si>
-    <t>bnez</t>
-  </si>
-  <si>
-    <t>div</t>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toCode["</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"]=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syscall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jal</t>
-  </si>
-  <si>
-    <t>jr</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>mfhi</t>
-  </si>
-  <si>
-    <t>mflo</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>rem</t>
-  </si>
-  <si>
-    <t>sb</t>
-  </si>
-  <si>
-    <t>seq</t>
-  </si>
-  <si>
-    <t>sge</t>
-  </si>
-  <si>
-    <t>sgt</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>sle</t>
-  </si>
-  <si>
-    <t>slt</t>
-  </si>
-  <si>
-    <t>sne</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>subu</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>syscall</t>
-  </si>
-  <si>
-    <t>addiu</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>blez</t>
-  </si>
-  <si>
-    <t>bltz</t>
-  </si>
-  <si>
-    <t>divu</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>jalr</t>
-  </si>
-  <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>mulu</t>
-  </si>
-  <si>
-    <t>negu</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
-    <t>remu</t>
-  </si>
-  <si>
-    <t>xor</t>
-  </si>
-  <si>
-    <t>xoru</t>
-  </si>
-  <si>
-    <t>IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据到寄存器（解锁）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0什么都不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1syscall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据方法新数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,14 +470,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -698,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +526,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,439 +865,1535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" t="s">
-        <v>151</v>
+        <v>103</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G1" t="str">
+        <f>D1&amp;A1&amp;E1&amp;B1&amp;F1</f>
+        <v>toCode["syscall"]=1;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G51" si="0">D2&amp;A2&amp;E2&amp;B2&amp;F2</f>
+        <v>toCode["lb"]=2;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["lh"]=3;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["lw"]=4;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["add"]=5;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["addiu"]=6;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["addu"]=7;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["div"]=8;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["divu"]=9;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["la"]=10;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["li"]=11;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["mul"]=12;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["mulu"]=13;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["neg"]=14;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["negu"]=15;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["rem"]=16;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["remu"]=17;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["seq"]=18;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sge"]=19;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sgt"]=20;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sle"]=21;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["slt"]=22;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sne"]=23;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sub"]=24;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["subu"]=25;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["xor"]=26;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["xoru"]=27;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["jalr"]=28;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["mfhi"]=29;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["mflo"]=30;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["move"]=31;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>119</v>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["jal"]=32;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sb"]=33;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sh"]=34;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["sw"]=35;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
       </c>
       <c r="F36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["beq"]=36;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["beqz"]=37;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bge"]=38;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bgez"]=39;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bgt"]=40;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bgtz"]=41;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["ble"]=42;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["blez"]=43;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["blt"]=44;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bltz"]=45;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bne"]=46;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["bnez"]=47;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["jr"]=48;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["b"]=49;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["j"]=50;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" t="s">
-        <v>155</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>toCode["nop"]=51;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,16 +2404,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,10 +2451,13 @@
         <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="N1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1571,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1604,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1634,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1667,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1700,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1796,7 +2712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +2742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +2772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +2802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +2832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1946,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +2895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2542,7 +3458,7 @@
         <v>60</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" si="1">4-COUNTBLANK(C34:F34)</f>
+        <f t="shared" ref="B34:B56" si="1">4-COUNTBLANK(C34:F34)</f>
         <v>2</v>
       </c>
       <c r="C34" t="s">
@@ -3327,7 +4243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K1048576 M1">
+  <conditionalFormatting sqref="M1:N1 G1:K1048576">
     <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="x">
       <formula>LEFT(G1,LEN("x"))="x"</formula>
     </cfRule>

--- a/structure/instructions.xlsx
+++ b/structure/instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
